--- a/pipeline_program/Compilacion manual.xlsx
+++ b/pipeline_program/Compilacion manual.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carlo\OneDrive\Escritorio\proyectogrupal1\pipeline_program\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06C31122-4CC3-44EF-B2B6-9ED27EFB2BC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B753E7A-4F52-4DC4-AE19-118F2642EC70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{0A68F680-E13A-4C0F-8DD6-CAA912E5C6E7}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="904" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="874" uniqueCount="148">
   <si>
     <t>e3a01001</t>
   </si>
@@ -252,9 +252,6 @@
     <t>28:26</t>
   </si>
   <si>
-    <t>19:16</t>
-  </si>
-  <si>
     <t>Control</t>
   </si>
   <si>
@@ -417,9 +414,6 @@
     <t>a0400014</t>
   </si>
   <si>
-    <t>01011100000000000000000000000000</t>
-  </si>
-  <si>
     <t>01000000110001001000000000000000</t>
   </si>
   <si>
@@ -447,9 +441,6 @@
     <t>11000000000000000000000010001100</t>
   </si>
   <si>
-    <t>5c000000</t>
-  </si>
-  <si>
     <t>40c48000</t>
   </si>
   <si>
@@ -487,6 +478,9 @@
   </si>
   <si>
     <t>01111100000001000000000000001010</t>
+  </si>
+  <si>
+    <t>01100100000000000000000000000000</t>
   </si>
 </sst>
 </file>
@@ -1146,171 +1140,6 @@
     <xf numFmtId="0" fontId="3" fillId="25" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="22" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="23" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="18" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="18" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="18" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="23" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="23" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="23" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="23" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="22" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="18" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="18" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="23" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="25" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="25" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="23" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="23" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="26" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1321,13 +1150,178 @@
     <xf numFmtId="49" fontId="13" fillId="20" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="23" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="23" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="23" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="23" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="22" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="18" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="18" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="18" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="23" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="23" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="23" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="23" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="22" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="20" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="13" fillId="18" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="18" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="25" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="25" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1651,8 +1645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCA85451-BACE-4C58-B167-E1264252C453}">
   <dimension ref="A1:AJ68"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="J56" sqref="J56:P56"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="U22" sqref="U22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1681,92 +1675,92 @@
       <c r="G1"/>
     </row>
     <row r="2" spans="1:36" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C2" s="118" t="s">
+      <c r="C2" s="98" t="s">
         <v>47</v>
       </c>
-      <c r="D2" s="119"/>
-      <c r="E2" s="119"/>
-      <c r="F2" s="119"/>
-      <c r="G2" s="119"/>
-      <c r="H2" s="119"/>
-      <c r="I2" s="120"/>
-      <c r="J2" s="108" t="s">
+      <c r="D2" s="99"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="99"/>
+      <c r="H2" s="99"/>
+      <c r="I2" s="100"/>
+      <c r="J2" s="89" t="s">
         <v>63</v>
       </c>
-      <c r="K2" s="109"/>
-      <c r="L2" s="109"/>
-      <c r="M2" s="109"/>
-      <c r="N2" s="109"/>
-      <c r="O2" s="109"/>
-      <c r="P2" s="110"/>
-      <c r="Q2" s="94" t="s">
+      <c r="K2" s="90"/>
+      <c r="L2" s="90"/>
+      <c r="M2" s="90"/>
+      <c r="N2" s="90"/>
+      <c r="O2" s="90"/>
+      <c r="P2" s="91"/>
+      <c r="Q2" s="110" t="s">
         <v>67</v>
       </c>
-      <c r="R2" s="94"/>
-      <c r="S2" s="94"/>
-      <c r="T2" s="94"/>
-      <c r="U2" s="94"/>
-      <c r="V2" s="94"/>
-      <c r="W2" s="94"/>
-      <c r="X2" s="100" t="s">
-        <v>72</v>
-      </c>
-      <c r="Y2" s="100"/>
-      <c r="Z2" s="100"/>
-      <c r="AA2" s="100"/>
-      <c r="AB2" s="100"/>
-      <c r="AC2" s="100"/>
-      <c r="AD2" s="100"/>
+      <c r="R2" s="110"/>
+      <c r="S2" s="110"/>
+      <c r="T2" s="110"/>
+      <c r="U2" s="110"/>
+      <c r="V2" s="110"/>
+      <c r="W2" s="110"/>
+      <c r="X2" s="116" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y2" s="116"/>
+      <c r="Z2" s="116"/>
+      <c r="AA2" s="116"/>
+      <c r="AB2" s="116"/>
+      <c r="AC2" s="116"/>
+      <c r="AD2" s="116"/>
     </row>
     <row r="3" spans="1:36" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C3" s="121" t="s">
+      <c r="C3" s="101" t="s">
         <v>46</v>
       </c>
-      <c r="D3" s="122"/>
-      <c r="E3" s="123"/>
-      <c r="F3" s="105" t="s">
+      <c r="D3" s="102"/>
+      <c r="E3" s="103"/>
+      <c r="F3" s="86" t="s">
         <v>48</v>
       </c>
-      <c r="G3" s="106"/>
-      <c r="H3" s="107"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="88"/>
       <c r="I3" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="J3" s="111" t="s">
+      <c r="J3" s="92" t="s">
         <v>46</v>
       </c>
-      <c r="K3" s="111"/>
-      <c r="L3" s="111"/>
-      <c r="M3" s="112" t="s">
+      <c r="K3" s="92"/>
+      <c r="L3" s="92"/>
+      <c r="M3" s="93" t="s">
         <v>48</v>
       </c>
-      <c r="N3" s="113"/>
-      <c r="O3" s="113"/>
-      <c r="P3" s="114"/>
-      <c r="Q3" s="95" t="s">
+      <c r="N3" s="94"/>
+      <c r="O3" s="94"/>
+      <c r="P3" s="95"/>
+      <c r="Q3" s="111" t="s">
         <v>46</v>
       </c>
-      <c r="R3" s="95"/>
-      <c r="S3" s="95"/>
-      <c r="T3" s="96" t="s">
+      <c r="R3" s="111"/>
+      <c r="S3" s="111"/>
+      <c r="T3" s="112" t="s">
         <v>68</v>
       </c>
-      <c r="U3" s="96"/>
-      <c r="V3" s="96"/>
-      <c r="W3" s="96"/>
-      <c r="X3" s="101" t="s">
+      <c r="U3" s="112"/>
+      <c r="V3" s="112"/>
+      <c r="W3" s="112"/>
+      <c r="X3" s="117" t="s">
         <v>46</v>
       </c>
-      <c r="Y3" s="101"/>
-      <c r="Z3" s="101"/>
-      <c r="AA3" s="90" t="s">
+      <c r="Y3" s="117"/>
+      <c r="Z3" s="117"/>
+      <c r="AA3" s="106" t="s">
         <v>49</v>
       </c>
-      <c r="AB3" s="90"/>
-      <c r="AC3" s="102" t="s">
-        <v>73</v>
-      </c>
-      <c r="AD3" s="103"/>
+      <c r="AB3" s="106"/>
+      <c r="AC3" s="118" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD3" s="119"/>
     </row>
     <row r="4" spans="1:36" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C4" s="26" t="s">
@@ -1805,10 +1799,10 @@
       <c r="N4" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="O4" s="115" t="s">
+      <c r="O4" s="96" t="s">
         <v>65</v>
       </c>
-      <c r="P4" s="116"/>
+      <c r="P4" s="97"/>
       <c r="Q4" s="33" t="s">
         <v>50</v>
       </c>
@@ -1824,10 +1818,10 @@
       <c r="U4" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="V4" s="97" t="s">
+      <c r="V4" s="113" t="s">
         <v>65</v>
       </c>
-      <c r="W4" s="98"/>
+      <c r="W4" s="114"/>
       <c r="X4" s="35" t="s">
         <v>50</v>
       </c>
@@ -1837,14 +1831,14 @@
       <c r="Z4" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="AA4" s="104" t="s">
+      <c r="AA4" s="120" t="s">
         <v>49</v>
       </c>
-      <c r="AB4" s="104"/>
-      <c r="AC4" s="88" t="s">
+      <c r="AB4" s="120"/>
+      <c r="AC4" s="104" t="s">
         <v>65</v>
       </c>
-      <c r="AD4" s="89"/>
+      <c r="AD4" s="105"/>
     </row>
     <row r="5" spans="1:36" ht="22.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="19" t="s">
@@ -1889,10 +1883,10 @@
       <c r="N5" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="O5" s="117" t="s">
+      <c r="O5" s="121" t="s">
         <v>66</v>
       </c>
-      <c r="P5" s="117"/>
+      <c r="P5" s="121"/>
       <c r="Q5" s="12" t="s">
         <v>56</v>
       </c>
@@ -1906,29 +1900,29 @@
         <v>59</v>
       </c>
       <c r="U5" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="V5" s="99" t="s">
+        <v>60</v>
+      </c>
+      <c r="V5" s="115" t="s">
         <v>66</v>
       </c>
-      <c r="W5" s="99"/>
+      <c r="W5" s="115"/>
       <c r="X5" s="15" t="s">
         <v>56</v>
       </c>
       <c r="Y5" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z5" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="Z5" s="15" t="s">
+      <c r="AA5" s="106" t="s">
         <v>75</v>
       </c>
-      <c r="AA5" s="90" t="s">
-        <v>76</v>
-      </c>
-      <c r="AB5" s="90"/>
-      <c r="AC5" s="91" t="s">
+      <c r="AB5" s="106"/>
+      <c r="AC5" s="107" t="s">
         <v>66</v>
       </c>
-      <c r="AD5" s="91"/>
+      <c r="AD5" s="107"/>
     </row>
     <row r="6" spans="1:36" ht="22.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A6" s="23" t="s">
@@ -1945,24 +1939,24 @@
       <c r="H6" s="24"/>
       <c r="I6" s="24"/>
       <c r="J6" s="46" t="s">
+        <v>76</v>
+      </c>
+      <c r="K6" s="46" t="s">
         <v>77</v>
       </c>
-      <c r="K6" s="46" t="s">
-        <v>78</v>
-      </c>
       <c r="L6" s="47">
         <v>1</v>
       </c>
       <c r="M6" s="47" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N6" s="48" t="s">
-        <v>88</v>
-      </c>
-      <c r="O6" s="92" t="s">
-        <v>95</v>
-      </c>
-      <c r="P6" s="93"/>
+        <v>87</v>
+      </c>
+      <c r="O6" s="108" t="s">
+        <v>94</v>
+      </c>
+      <c r="P6" s="109"/>
       <c r="Q6" s="24"/>
       <c r="R6" s="24"/>
       <c r="S6" s="24"/>
@@ -1999,24 +1993,24 @@
       <c r="H7" s="18"/>
       <c r="I7" s="18"/>
       <c r="J7" s="49" t="s">
+        <v>76</v>
+      </c>
+      <c r="K7" s="49" t="s">
         <v>77</v>
       </c>
-      <c r="K7" s="49" t="s">
-        <v>78</v>
-      </c>
       <c r="L7" s="50">
         <v>1</v>
       </c>
       <c r="M7" s="50" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N7" s="51" t="s">
-        <v>88</v>
-      </c>
-      <c r="O7" s="86" t="s">
-        <v>96</v>
-      </c>
-      <c r="P7" s="87"/>
+        <v>87</v>
+      </c>
+      <c r="O7" s="122" t="s">
+        <v>95</v>
+      </c>
+      <c r="P7" s="123"/>
       <c r="Q7" s="18"/>
       <c r="R7" s="18"/>
       <c r="S7" s="18"/>
@@ -2053,24 +2047,24 @@
       <c r="H8" s="18"/>
       <c r="I8" s="18"/>
       <c r="J8" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="K8" s="43" t="s">
         <v>77</v>
       </c>
-      <c r="K8" s="43" t="s">
-        <v>78</v>
-      </c>
       <c r="L8" s="44">
         <v>1</v>
       </c>
       <c r="M8" s="44" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N8" s="45" t="s">
-        <v>88</v>
-      </c>
-      <c r="O8" s="80" t="s">
-        <v>94</v>
-      </c>
-      <c r="P8" s="80"/>
+        <v>87</v>
+      </c>
+      <c r="O8" s="125" t="s">
+        <v>93</v>
+      </c>
+      <c r="P8" s="125"/>
       <c r="Q8" s="18"/>
       <c r="R8" s="18"/>
       <c r="S8" s="18"/>
@@ -2107,24 +2101,24 @@
       <c r="H9" s="18"/>
       <c r="I9" s="18"/>
       <c r="J9" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="K9" s="43" t="s">
         <v>77</v>
       </c>
-      <c r="K9" s="43" t="s">
-        <v>78</v>
-      </c>
       <c r="L9" s="44">
         <v>1</v>
       </c>
       <c r="M9" s="44" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N9" s="45" t="s">
-        <v>88</v>
-      </c>
-      <c r="O9" s="80" t="s">
-        <v>94</v>
-      </c>
-      <c r="P9" s="80"/>
+        <v>87</v>
+      </c>
+      <c r="O9" s="125" t="s">
+        <v>93</v>
+      </c>
+      <c r="P9" s="125"/>
       <c r="Q9" s="18"/>
       <c r="R9" s="18"/>
       <c r="S9" s="18"/>
@@ -2161,24 +2155,24 @@
       <c r="H10" s="18"/>
       <c r="I10" s="18"/>
       <c r="J10" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="K10" s="43" t="s">
         <v>77</v>
       </c>
-      <c r="K10" s="43" t="s">
-        <v>78</v>
-      </c>
       <c r="L10" s="44">
         <v>1</v>
       </c>
       <c r="M10" s="44" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N10" s="45" t="s">
-        <v>88</v>
-      </c>
-      <c r="O10" s="80" t="s">
-        <v>94</v>
-      </c>
-      <c r="P10" s="80"/>
+        <v>87</v>
+      </c>
+      <c r="O10" s="125" t="s">
+        <v>93</v>
+      </c>
+      <c r="P10" s="125"/>
       <c r="Q10" s="18"/>
       <c r="R10" s="18"/>
       <c r="S10" s="18"/>
@@ -2215,24 +2209,24 @@
       <c r="H11" s="18"/>
       <c r="I11" s="18"/>
       <c r="J11" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="K11" s="43" t="s">
         <v>77</v>
       </c>
-      <c r="K11" s="43" t="s">
-        <v>78</v>
-      </c>
       <c r="L11" s="44">
         <v>1</v>
       </c>
       <c r="M11" s="44" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N11" s="45" t="s">
-        <v>88</v>
-      </c>
-      <c r="O11" s="80" t="s">
-        <v>94</v>
-      </c>
-      <c r="P11" s="80"/>
+        <v>87</v>
+      </c>
+      <c r="O11" s="125" t="s">
+        <v>93</v>
+      </c>
+      <c r="P11" s="125"/>
       <c r="Q11" s="18"/>
       <c r="R11" s="18"/>
       <c r="S11" s="18"/>
@@ -2269,24 +2263,24 @@
       <c r="H12" s="18"/>
       <c r="I12" s="18"/>
       <c r="J12" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="K12" s="43" t="s">
         <v>77</v>
       </c>
-      <c r="K12" s="43" t="s">
-        <v>78</v>
-      </c>
       <c r="L12" s="44">
         <v>1</v>
       </c>
       <c r="M12" s="44" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N12" s="45" t="s">
-        <v>88</v>
-      </c>
-      <c r="O12" s="80" t="s">
-        <v>94</v>
-      </c>
-      <c r="P12" s="80"/>
+        <v>87</v>
+      </c>
+      <c r="O12" s="125" t="s">
+        <v>93</v>
+      </c>
+      <c r="P12" s="125"/>
       <c r="Q12" s="18"/>
       <c r="R12" s="18"/>
       <c r="S12" s="18"/>
@@ -2316,25 +2310,25 @@
         <v>3</v>
       </c>
       <c r="C13" s="53" t="s">
+        <v>79</v>
+      </c>
+      <c r="D13" s="53" t="s">
         <v>80</v>
-      </c>
-      <c r="D13" s="53" t="s">
-        <v>81</v>
       </c>
       <c r="E13" s="54">
         <v>0</v>
       </c>
       <c r="F13" s="54" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G13" s="54" t="s">
+        <v>91</v>
+      </c>
+      <c r="H13" s="54" t="s">
         <v>92</v>
       </c>
-      <c r="H13" s="54" t="s">
-        <v>93</v>
-      </c>
       <c r="I13" s="55" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J13" s="18"/>
       <c r="K13" s="18"/>
@@ -2372,25 +2366,25 @@
         <v>4</v>
       </c>
       <c r="C14" s="53" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D14" s="54" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E14" s="54">
         <v>0</v>
       </c>
       <c r="F14" s="54" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G14" s="54" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H14" s="54" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I14" s="55" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J14" s="18"/>
       <c r="K14" s="18"/>
@@ -2428,25 +2422,25 @@
         <v>5</v>
       </c>
       <c r="C15" s="53" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D15" s="54" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E15" s="54">
         <v>0</v>
       </c>
       <c r="F15" s="54" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G15" s="54" t="s">
+        <v>91</v>
+      </c>
+      <c r="H15" s="54" t="s">
         <v>92</v>
       </c>
-      <c r="H15" s="54" t="s">
-        <v>93</v>
-      </c>
       <c r="I15" s="55" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J15" s="18"/>
       <c r="K15" s="18"/>
@@ -2484,25 +2478,25 @@
         <v>6</v>
       </c>
       <c r="C16" s="53" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D16" s="53" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E16" s="54">
         <v>0</v>
       </c>
       <c r="F16" s="54" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G16" s="54" t="s">
+        <v>91</v>
+      </c>
+      <c r="H16" s="54" t="s">
         <v>92</v>
       </c>
-      <c r="H16" s="54" t="s">
-        <v>93</v>
-      </c>
       <c r="I16" s="55" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J16" s="18"/>
       <c r="K16" s="18"/>
@@ -2534,7 +2528,7 @@
     </row>
     <row r="17" spans="1:36" ht="22.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A17" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B17" s="17" t="s">
         <v>2</v>
@@ -2547,24 +2541,24 @@
       <c r="H17" s="18"/>
       <c r="I17" s="18"/>
       <c r="J17" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="K17" s="43" t="s">
         <v>77</v>
       </c>
-      <c r="K17" s="43" t="s">
-        <v>78</v>
-      </c>
       <c r="L17" s="44">
         <v>1</v>
       </c>
       <c r="M17" s="44" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N17" s="45" t="s">
-        <v>88</v>
-      </c>
-      <c r="O17" s="80" t="s">
-        <v>94</v>
-      </c>
-      <c r="P17" s="80"/>
+        <v>87</v>
+      </c>
+      <c r="O17" s="125" t="s">
+        <v>93</v>
+      </c>
+      <c r="P17" s="125"/>
       <c r="Q17" s="16"/>
       <c r="R17" s="18"/>
       <c r="S17" s="18"/>
@@ -2588,7 +2582,7 @@
     </row>
     <row r="18" spans="1:36" ht="22.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A18" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B18" s="17" t="s">
         <v>2</v>
@@ -2601,24 +2595,24 @@
       <c r="H18" s="18"/>
       <c r="I18" s="18"/>
       <c r="J18" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="K18" s="43" t="s">
         <v>77</v>
       </c>
-      <c r="K18" s="43" t="s">
-        <v>78</v>
-      </c>
       <c r="L18" s="44">
         <v>1</v>
       </c>
       <c r="M18" s="44" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N18" s="45" t="s">
-        <v>88</v>
-      </c>
-      <c r="O18" s="80" t="s">
-        <v>94</v>
-      </c>
-      <c r="P18" s="80"/>
+        <v>87</v>
+      </c>
+      <c r="O18" s="125" t="s">
+        <v>93</v>
+      </c>
+      <c r="P18" s="125"/>
       <c r="Q18" s="16"/>
       <c r="R18" s="18"/>
       <c r="S18" s="18"/>
@@ -2642,7 +2636,7 @@
     </row>
     <row r="19" spans="1:36" ht="22.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A19" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B19" s="17" t="s">
         <v>2</v>
@@ -2655,24 +2649,24 @@
       <c r="H19" s="18"/>
       <c r="I19" s="18"/>
       <c r="J19" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="K19" s="43" t="s">
         <v>77</v>
       </c>
-      <c r="K19" s="43" t="s">
-        <v>78</v>
-      </c>
       <c r="L19" s="44">
         <v>1</v>
       </c>
       <c r="M19" s="44" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N19" s="45" t="s">
-        <v>88</v>
-      </c>
-      <c r="O19" s="80" t="s">
-        <v>94</v>
-      </c>
-      <c r="P19" s="80"/>
+        <v>87</v>
+      </c>
+      <c r="O19" s="125" t="s">
+        <v>93</v>
+      </c>
+      <c r="P19" s="125"/>
       <c r="Q19" s="16"/>
       <c r="R19" s="18"/>
       <c r="S19" s="18"/>
@@ -2696,7 +2690,7 @@
     </row>
     <row r="20" spans="1:36" ht="22.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A20" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B20" s="17" t="s">
         <v>2</v>
@@ -2709,24 +2703,24 @@
       <c r="H20" s="18"/>
       <c r="I20" s="18"/>
       <c r="J20" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="K20" s="43" t="s">
         <v>77</v>
       </c>
-      <c r="K20" s="43" t="s">
-        <v>78</v>
-      </c>
       <c r="L20" s="44">
         <v>1</v>
       </c>
       <c r="M20" s="44" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N20" s="45" t="s">
-        <v>88</v>
-      </c>
-      <c r="O20" s="80" t="s">
-        <v>94</v>
-      </c>
-      <c r="P20" s="80"/>
+        <v>87</v>
+      </c>
+      <c r="O20" s="125" t="s">
+        <v>93</v>
+      </c>
+      <c r="P20" s="125"/>
       <c r="Q20" s="16"/>
       <c r="R20" s="18"/>
       <c r="S20" s="18"/>
@@ -2750,7 +2744,7 @@
     </row>
     <row r="21" spans="1:36" ht="22.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A21" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B21" s="17" t="s">
         <v>2</v>
@@ -2763,24 +2757,24 @@
       <c r="H21" s="18"/>
       <c r="I21" s="18"/>
       <c r="J21" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="K21" s="43" t="s">
         <v>77</v>
       </c>
-      <c r="K21" s="43" t="s">
-        <v>78</v>
-      </c>
       <c r="L21" s="44">
         <v>1</v>
       </c>
       <c r="M21" s="44" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N21" s="45" t="s">
-        <v>88</v>
-      </c>
-      <c r="O21" s="80" t="s">
-        <v>94</v>
-      </c>
-      <c r="P21" s="80"/>
+        <v>87</v>
+      </c>
+      <c r="O21" s="125" t="s">
+        <v>93</v>
+      </c>
+      <c r="P21" s="125"/>
       <c r="Q21" s="16"/>
       <c r="R21" s="18"/>
       <c r="S21" s="18"/>
@@ -2824,24 +2818,24 @@
       <c r="O22" s="18"/>
       <c r="P22" s="18"/>
       <c r="Q22" s="56" t="s">
+        <v>79</v>
+      </c>
+      <c r="R22" s="57" t="s">
+        <v>84</v>
+      </c>
+      <c r="S22" s="58" t="s">
         <v>80</v>
       </c>
-      <c r="R22" s="57" t="s">
-        <v>85</v>
-      </c>
-      <c r="S22" s="58" t="s">
-        <v>81</v>
-      </c>
       <c r="T22" s="59" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="U22" s="57" t="s">
-        <v>88</v>
-      </c>
-      <c r="V22" s="82" t="s">
-        <v>102</v>
-      </c>
-      <c r="W22" s="82"/>
+        <v>87</v>
+      </c>
+      <c r="V22" s="124" t="s">
+        <v>101</v>
+      </c>
+      <c r="W22" s="124"/>
       <c r="X22" s="18"/>
       <c r="Y22" s="18"/>
       <c r="Z22" s="18"/>
@@ -2878,24 +2872,24 @@
       <c r="O23" s="18"/>
       <c r="P23" s="18"/>
       <c r="Q23" s="56" t="s">
+        <v>79</v>
+      </c>
+      <c r="R23" s="57" t="s">
+        <v>84</v>
+      </c>
+      <c r="S23" s="58" t="s">
         <v>80</v>
       </c>
-      <c r="R23" s="57" t="s">
-        <v>85</v>
-      </c>
-      <c r="S23" s="58" t="s">
-        <v>81</v>
-      </c>
       <c r="T23" s="59" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="U23" s="57" t="s">
-        <v>88</v>
-      </c>
-      <c r="V23" s="82" t="s">
-        <v>103</v>
-      </c>
-      <c r="W23" s="82"/>
+        <v>87</v>
+      </c>
+      <c r="V23" s="124" t="s">
+        <v>102</v>
+      </c>
+      <c r="W23" s="124"/>
       <c r="X23" s="18"/>
       <c r="Y23" s="18"/>
       <c r="Z23" s="18"/>
@@ -2932,24 +2926,24 @@
       <c r="O24" s="18"/>
       <c r="P24" s="18"/>
       <c r="Q24" s="56" t="s">
+        <v>79</v>
+      </c>
+      <c r="R24" s="57" t="s">
+        <v>84</v>
+      </c>
+      <c r="S24" s="58" t="s">
         <v>80</v>
       </c>
-      <c r="R24" s="57" t="s">
-        <v>85</v>
-      </c>
-      <c r="S24" s="58" t="s">
-        <v>81</v>
-      </c>
       <c r="T24" s="59" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="U24" s="57" t="s">
-        <v>88</v>
-      </c>
-      <c r="V24" s="82" t="s">
-        <v>104</v>
-      </c>
-      <c r="W24" s="82"/>
+        <v>87</v>
+      </c>
+      <c r="V24" s="124" t="s">
+        <v>103</v>
+      </c>
+      <c r="W24" s="124"/>
       <c r="X24" s="18"/>
       <c r="Y24" s="18"/>
       <c r="Z24" s="18"/>
@@ -2986,24 +2980,24 @@
       <c r="O25" s="18"/>
       <c r="P25" s="18"/>
       <c r="Q25" s="56" t="s">
+        <v>79</v>
+      </c>
+      <c r="R25" s="57" t="s">
+        <v>84</v>
+      </c>
+      <c r="S25" s="58" t="s">
         <v>80</v>
       </c>
-      <c r="R25" s="57" t="s">
-        <v>85</v>
-      </c>
-      <c r="S25" s="58" t="s">
-        <v>81</v>
-      </c>
       <c r="T25" s="59" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="U25" s="57" t="s">
-        <v>88</v>
-      </c>
-      <c r="V25" s="82" t="s">
-        <v>105</v>
-      </c>
-      <c r="W25" s="82"/>
+        <v>87</v>
+      </c>
+      <c r="V25" s="124" t="s">
+        <v>104</v>
+      </c>
+      <c r="W25" s="124"/>
       <c r="X25" s="18"/>
       <c r="Y25" s="18"/>
       <c r="Z25" s="18"/>
@@ -3040,24 +3034,24 @@
       <c r="O26" s="18"/>
       <c r="P26" s="18"/>
       <c r="Q26" s="56" t="s">
+        <v>79</v>
+      </c>
+      <c r="R26" s="56" t="s">
+        <v>85</v>
+      </c>
+      <c r="S26" s="58" t="s">
         <v>80</v>
       </c>
-      <c r="R26" s="56" t="s">
-        <v>86</v>
-      </c>
-      <c r="S26" s="58" t="s">
-        <v>81</v>
-      </c>
       <c r="T26" s="59" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="U26" s="57" t="s">
-        <v>88</v>
-      </c>
-      <c r="V26" s="82" t="s">
-        <v>106</v>
-      </c>
-      <c r="W26" s="82"/>
+        <v>87</v>
+      </c>
+      <c r="V26" s="124" t="s">
+        <v>105</v>
+      </c>
+      <c r="W26" s="124"/>
       <c r="X26" s="18"/>
       <c r="Y26" s="18"/>
       <c r="Z26" s="18"/>
@@ -3074,7 +3068,7 @@
     </row>
     <row r="27" spans="1:36" ht="22.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A27" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B27" s="17" t="s">
         <v>2</v>
@@ -3087,24 +3081,24 @@
       <c r="H27" s="18"/>
       <c r="I27" s="18"/>
       <c r="J27" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="K27" s="43" t="s">
         <v>77</v>
       </c>
-      <c r="K27" s="43" t="s">
-        <v>78</v>
-      </c>
       <c r="L27" s="44">
         <v>1</v>
       </c>
       <c r="M27" s="44" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N27" s="45" t="s">
-        <v>88</v>
-      </c>
-      <c r="O27" s="80" t="s">
-        <v>94</v>
-      </c>
-      <c r="P27" s="80"/>
+        <v>87</v>
+      </c>
+      <c r="O27" s="125" t="s">
+        <v>93</v>
+      </c>
+      <c r="P27" s="125"/>
       <c r="Q27" s="16"/>
       <c r="R27" s="18"/>
       <c r="S27" s="18"/>
@@ -3128,7 +3122,7 @@
     </row>
     <row r="28" spans="1:36" ht="22.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A28" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B28" s="17" t="s">
         <v>2</v>
@@ -3141,24 +3135,24 @@
       <c r="H28" s="18"/>
       <c r="I28" s="18"/>
       <c r="J28" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="K28" s="43" t="s">
         <v>77</v>
       </c>
-      <c r="K28" s="43" t="s">
-        <v>78</v>
-      </c>
       <c r="L28" s="44">
         <v>1</v>
       </c>
       <c r="M28" s="44" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N28" s="45" t="s">
-        <v>88</v>
-      </c>
-      <c r="O28" s="80" t="s">
-        <v>94</v>
-      </c>
-      <c r="P28" s="80"/>
+        <v>87</v>
+      </c>
+      <c r="O28" s="125" t="s">
+        <v>93</v>
+      </c>
+      <c r="P28" s="125"/>
       <c r="Q28" s="16"/>
       <c r="R28" s="18"/>
       <c r="S28" s="18"/>
@@ -3182,7 +3176,7 @@
     </row>
     <row r="29" spans="1:36" ht="22.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A29" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B29" s="17" t="s">
         <v>2</v>
@@ -3195,24 +3189,24 @@
       <c r="H29" s="18"/>
       <c r="I29" s="18"/>
       <c r="J29" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="K29" s="43" t="s">
         <v>77</v>
       </c>
-      <c r="K29" s="43" t="s">
-        <v>78</v>
-      </c>
       <c r="L29" s="44">
         <v>1</v>
       </c>
       <c r="M29" s="44" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N29" s="45" t="s">
-        <v>88</v>
-      </c>
-      <c r="O29" s="80" t="s">
-        <v>94</v>
-      </c>
-      <c r="P29" s="80"/>
+        <v>87</v>
+      </c>
+      <c r="O29" s="125" t="s">
+        <v>93</v>
+      </c>
+      <c r="P29" s="125"/>
       <c r="Q29" s="16"/>
       <c r="R29" s="18"/>
       <c r="S29" s="18"/>
@@ -3236,7 +3230,7 @@
     </row>
     <row r="30" spans="1:36" ht="22.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A30" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B30" s="17" t="s">
         <v>2</v>
@@ -3249,24 +3243,24 @@
       <c r="H30" s="18"/>
       <c r="I30" s="18"/>
       <c r="J30" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="K30" s="43" t="s">
         <v>77</v>
       </c>
-      <c r="K30" s="43" t="s">
-        <v>78</v>
-      </c>
       <c r="L30" s="44">
         <v>1</v>
       </c>
       <c r="M30" s="44" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N30" s="45" t="s">
-        <v>88</v>
-      </c>
-      <c r="O30" s="80" t="s">
-        <v>94</v>
-      </c>
-      <c r="P30" s="80"/>
+        <v>87</v>
+      </c>
+      <c r="O30" s="125" t="s">
+        <v>93</v>
+      </c>
+      <c r="P30" s="125"/>
       <c r="Q30" s="16"/>
       <c r="R30" s="18"/>
       <c r="S30" s="18"/>
@@ -3290,7 +3284,7 @@
     </row>
     <row r="31" spans="1:36" ht="22.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A31" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B31" s="17" t="s">
         <v>2</v>
@@ -3303,24 +3297,24 @@
       <c r="H31" s="18"/>
       <c r="I31" s="18"/>
       <c r="J31" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="K31" s="43" t="s">
         <v>77</v>
       </c>
-      <c r="K31" s="43" t="s">
-        <v>78</v>
-      </c>
       <c r="L31" s="44">
         <v>1</v>
       </c>
       <c r="M31" s="44" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N31" s="45" t="s">
-        <v>88</v>
-      </c>
-      <c r="O31" s="80" t="s">
-        <v>94</v>
-      </c>
-      <c r="P31" s="80"/>
+        <v>87</v>
+      </c>
+      <c r="O31" s="125" t="s">
+        <v>93</v>
+      </c>
+      <c r="P31" s="125"/>
       <c r="Q31" s="16"/>
       <c r="R31" s="18"/>
       <c r="S31" s="18"/>
@@ -3364,24 +3358,24 @@
       <c r="O32" s="18"/>
       <c r="P32" s="18"/>
       <c r="Q32" s="56" t="s">
+        <v>79</v>
+      </c>
+      <c r="R32" s="57" t="s">
+        <v>84</v>
+      </c>
+      <c r="S32" s="58" t="s">
         <v>80</v>
       </c>
-      <c r="R32" s="57" t="s">
-        <v>85</v>
-      </c>
-      <c r="S32" s="58" t="s">
-        <v>81</v>
-      </c>
       <c r="T32" s="59" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="U32" s="57" t="s">
-        <v>88</v>
-      </c>
-      <c r="V32" s="82" t="s">
-        <v>106</v>
-      </c>
-      <c r="W32" s="82"/>
+        <v>87</v>
+      </c>
+      <c r="V32" s="124" t="s">
+        <v>105</v>
+      </c>
+      <c r="W32" s="124"/>
       <c r="X32" s="18"/>
       <c r="Y32" s="18"/>
       <c r="Z32" s="18"/>
@@ -3411,24 +3405,24 @@
       <c r="H33" s="18"/>
       <c r="I33" s="18"/>
       <c r="J33" s="49" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K33" s="50" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L33" s="50">
         <v>1</v>
       </c>
       <c r="M33" s="52" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N33" s="50" t="s">
-        <v>101</v>
-      </c>
-      <c r="O33" s="81" t="s">
-        <v>107</v>
-      </c>
-      <c r="P33" s="81"/>
+        <v>100</v>
+      </c>
+      <c r="O33" s="129" t="s">
+        <v>106</v>
+      </c>
+      <c r="P33" s="129"/>
       <c r="Q33" s="18"/>
       <c r="R33" s="18"/>
       <c r="S33" s="18"/>
@@ -3452,7 +3446,7 @@
     </row>
     <row r="34" spans="1:36" ht="22.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A34" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B34" s="17" t="s">
         <v>2</v>
@@ -3465,24 +3459,24 @@
       <c r="H34" s="18"/>
       <c r="I34" s="18"/>
       <c r="J34" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="K34" s="43" t="s">
         <v>77</v>
       </c>
-      <c r="K34" s="43" t="s">
-        <v>78</v>
-      </c>
       <c r="L34" s="44">
         <v>1</v>
       </c>
       <c r="M34" s="44" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N34" s="45" t="s">
-        <v>88</v>
-      </c>
-      <c r="O34" s="80" t="s">
-        <v>94</v>
-      </c>
-      <c r="P34" s="80"/>
+        <v>87</v>
+      </c>
+      <c r="O34" s="125" t="s">
+        <v>93</v>
+      </c>
+      <c r="P34" s="125"/>
       <c r="Q34" s="16"/>
       <c r="R34" s="18"/>
       <c r="S34" s="18"/>
@@ -3506,7 +3500,7 @@
     </row>
     <row r="35" spans="1:36" ht="22.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A35" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B35" s="17" t="s">
         <v>2</v>
@@ -3519,24 +3513,24 @@
       <c r="H35" s="18"/>
       <c r="I35" s="18"/>
       <c r="J35" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="K35" s="43" t="s">
         <v>77</v>
       </c>
-      <c r="K35" s="43" t="s">
-        <v>78</v>
-      </c>
       <c r="L35" s="44">
         <v>1</v>
       </c>
       <c r="M35" s="44" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N35" s="45" t="s">
-        <v>88</v>
-      </c>
-      <c r="O35" s="80" t="s">
-        <v>94</v>
-      </c>
-      <c r="P35" s="80"/>
+        <v>87</v>
+      </c>
+      <c r="O35" s="125" t="s">
+        <v>93</v>
+      </c>
+      <c r="P35" s="125"/>
       <c r="Q35" s="16"/>
       <c r="R35" s="18"/>
       <c r="S35" s="18"/>
@@ -3560,7 +3554,7 @@
     </row>
     <row r="36" spans="1:36" ht="22.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A36" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B36" s="17" t="s">
         <v>2</v>
@@ -3573,24 +3567,24 @@
       <c r="H36" s="18"/>
       <c r="I36" s="18"/>
       <c r="J36" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="K36" s="43" t="s">
         <v>77</v>
       </c>
-      <c r="K36" s="43" t="s">
-        <v>78</v>
-      </c>
       <c r="L36" s="44">
         <v>1</v>
       </c>
       <c r="M36" s="44" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N36" s="45" t="s">
-        <v>88</v>
-      </c>
-      <c r="O36" s="80" t="s">
-        <v>94</v>
-      </c>
-      <c r="P36" s="80"/>
+        <v>87</v>
+      </c>
+      <c r="O36" s="125" t="s">
+        <v>93</v>
+      </c>
+      <c r="P36" s="125"/>
       <c r="Q36" s="16"/>
       <c r="R36" s="18"/>
       <c r="S36" s="18"/>
@@ -3614,7 +3608,7 @@
     </row>
     <row r="37" spans="1:36" ht="22.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A37" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B37" s="17" t="s">
         <v>2</v>
@@ -3627,24 +3621,24 @@
       <c r="H37" s="18"/>
       <c r="I37" s="18"/>
       <c r="J37" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="K37" s="43" t="s">
         <v>77</v>
       </c>
-      <c r="K37" s="43" t="s">
-        <v>78</v>
-      </c>
       <c r="L37" s="44">
         <v>1</v>
       </c>
       <c r="M37" s="44" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N37" s="45" t="s">
-        <v>88</v>
-      </c>
-      <c r="O37" s="80" t="s">
-        <v>94</v>
-      </c>
-      <c r="P37" s="80"/>
+        <v>87</v>
+      </c>
+      <c r="O37" s="125" t="s">
+        <v>93</v>
+      </c>
+      <c r="P37" s="125"/>
       <c r="Q37" s="16"/>
       <c r="R37" s="18"/>
       <c r="S37" s="18"/>
@@ -3668,7 +3662,7 @@
     </row>
     <row r="38" spans="1:36" ht="22.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A38" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B38" s="17" t="s">
         <v>2</v>
@@ -3681,24 +3675,24 @@
       <c r="H38" s="18"/>
       <c r="I38" s="18"/>
       <c r="J38" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="K38" s="43" t="s">
         <v>77</v>
       </c>
-      <c r="K38" s="43" t="s">
-        <v>78</v>
-      </c>
       <c r="L38" s="44">
         <v>1</v>
       </c>
       <c r="M38" s="44" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N38" s="45" t="s">
-        <v>88</v>
-      </c>
-      <c r="O38" s="80" t="s">
-        <v>94</v>
-      </c>
-      <c r="P38" s="80"/>
+        <v>87</v>
+      </c>
+      <c r="O38" s="125" t="s">
+        <v>93</v>
+      </c>
+      <c r="P38" s="125"/>
       <c r="Q38" s="16"/>
       <c r="R38" s="18"/>
       <c r="S38" s="18"/>
@@ -3749,22 +3743,22 @@
       <c r="V39" s="18"/>
       <c r="W39" s="18"/>
       <c r="X39" s="60" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y39" s="61" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z39" s="62" t="s">
         <v>89</v>
       </c>
-      <c r="Y39" s="61" t="s">
-        <v>89</v>
-      </c>
-      <c r="Z39" s="62" t="s">
+      <c r="AA39" s="126" t="s">
         <v>90</v>
       </c>
-      <c r="AA39" s="83" t="s">
-        <v>91</v>
-      </c>
-      <c r="AB39" s="83"/>
-      <c r="AC39" s="84" t="s">
-        <v>108</v>
-      </c>
-      <c r="AD39" s="85"/>
+      <c r="AB39" s="126"/>
+      <c r="AC39" s="127" t="s">
+        <v>107</v>
+      </c>
+      <c r="AD39" s="128"/>
       <c r="AE39" s="20"/>
       <c r="AF39" s="20"/>
       <c r="AG39" s="20"/>
@@ -3801,22 +3795,22 @@
       <c r="V40" s="18"/>
       <c r="W40" s="18"/>
       <c r="X40" s="60" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y40" s="60" t="s">
         <v>89</v>
       </c>
-      <c r="Y40" s="60" t="s">
+      <c r="Z40" s="62" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA40" s="126" t="s">
         <v>90</v>
       </c>
-      <c r="Z40" s="62" t="s">
-        <v>90</v>
-      </c>
-      <c r="AA40" s="83" t="s">
-        <v>91</v>
-      </c>
-      <c r="AB40" s="83"/>
-      <c r="AC40" s="84" t="s">
-        <v>109</v>
-      </c>
-      <c r="AD40" s="85"/>
+      <c r="AB40" s="126"/>
+      <c r="AC40" s="127" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD40" s="128"/>
       <c r="AE40" s="20"/>
       <c r="AF40" s="20"/>
       <c r="AG40" s="20"/>
@@ -3839,24 +3833,24 @@
       <c r="H41" s="18"/>
       <c r="I41" s="18"/>
       <c r="J41" s="49" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K41" s="50" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L41" s="50">
         <v>1</v>
       </c>
       <c r="M41" s="52" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N41" s="50" t="s">
-        <v>92</v>
-      </c>
-      <c r="O41" s="86" t="s">
-        <v>96</v>
-      </c>
-      <c r="P41" s="87"/>
+        <v>91</v>
+      </c>
+      <c r="O41" s="122" t="s">
+        <v>95</v>
+      </c>
+      <c r="P41" s="123"/>
       <c r="Q41" s="18"/>
       <c r="R41" s="18"/>
       <c r="S41" s="18"/>
@@ -3880,7 +3874,7 @@
     </row>
     <row r="42" spans="1:36" ht="22.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A42" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B42" s="17" t="s">
         <v>2</v>
@@ -3893,24 +3887,24 @@
       <c r="H42" s="18"/>
       <c r="I42" s="18"/>
       <c r="J42" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="K42" s="43" t="s">
         <v>77</v>
       </c>
-      <c r="K42" s="43" t="s">
-        <v>78</v>
-      </c>
       <c r="L42" s="44">
         <v>1</v>
       </c>
       <c r="M42" s="44" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N42" s="45" t="s">
-        <v>88</v>
-      </c>
-      <c r="O42" s="80" t="s">
-        <v>94</v>
-      </c>
-      <c r="P42" s="80"/>
+        <v>87</v>
+      </c>
+      <c r="O42" s="125" t="s">
+        <v>93</v>
+      </c>
+      <c r="P42" s="125"/>
       <c r="Q42" s="16"/>
       <c r="R42" s="18"/>
       <c r="S42" s="18"/>
@@ -3934,7 +3928,7 @@
     </row>
     <row r="43" spans="1:36" ht="22.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A43" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B43" s="17" t="s">
         <v>2</v>
@@ -3947,24 +3941,24 @@
       <c r="H43" s="18"/>
       <c r="I43" s="18"/>
       <c r="J43" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="K43" s="43" t="s">
         <v>77</v>
       </c>
-      <c r="K43" s="43" t="s">
-        <v>78</v>
-      </c>
       <c r="L43" s="44">
         <v>1</v>
       </c>
       <c r="M43" s="44" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N43" s="45" t="s">
-        <v>88</v>
-      </c>
-      <c r="O43" s="80" t="s">
-        <v>94</v>
-      </c>
-      <c r="P43" s="80"/>
+        <v>87</v>
+      </c>
+      <c r="O43" s="125" t="s">
+        <v>93</v>
+      </c>
+      <c r="P43" s="125"/>
       <c r="Q43" s="16"/>
       <c r="R43" s="18"/>
       <c r="S43" s="18"/>
@@ -3988,7 +3982,7 @@
     </row>
     <row r="44" spans="1:36" ht="22.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A44" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B44" s="17" t="s">
         <v>2</v>
@@ -4001,24 +3995,24 @@
       <c r="H44" s="18"/>
       <c r="I44" s="18"/>
       <c r="J44" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="K44" s="43" t="s">
         <v>77</v>
       </c>
-      <c r="K44" s="43" t="s">
-        <v>78</v>
-      </c>
       <c r="L44" s="44">
         <v>1</v>
       </c>
       <c r="M44" s="44" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N44" s="45" t="s">
-        <v>88</v>
-      </c>
-      <c r="O44" s="80" t="s">
-        <v>94</v>
-      </c>
-      <c r="P44" s="80"/>
+        <v>87</v>
+      </c>
+      <c r="O44" s="125" t="s">
+        <v>93</v>
+      </c>
+      <c r="P44" s="125"/>
       <c r="Q44" s="16"/>
       <c r="R44" s="18"/>
       <c r="S44" s="18"/>
@@ -4042,7 +4036,7 @@
     </row>
     <row r="45" spans="1:36" ht="22.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A45" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B45" s="17" t="s">
         <v>2</v>
@@ -4055,24 +4049,24 @@
       <c r="H45" s="18"/>
       <c r="I45" s="18"/>
       <c r="J45" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="K45" s="43" t="s">
         <v>77</v>
       </c>
-      <c r="K45" s="43" t="s">
-        <v>78</v>
-      </c>
       <c r="L45" s="44">
         <v>1</v>
       </c>
       <c r="M45" s="44" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N45" s="45" t="s">
-        <v>88</v>
-      </c>
-      <c r="O45" s="80" t="s">
-        <v>94</v>
-      </c>
-      <c r="P45" s="80"/>
+        <v>87</v>
+      </c>
+      <c r="O45" s="125" t="s">
+        <v>93</v>
+      </c>
+      <c r="P45" s="125"/>
       <c r="Q45" s="16"/>
       <c r="R45" s="18"/>
       <c r="S45" s="18"/>
@@ -4096,7 +4090,7 @@
     </row>
     <row r="46" spans="1:36" ht="22.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A46" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B46" s="17" t="s">
         <v>2</v>
@@ -4109,24 +4103,24 @@
       <c r="H46" s="18"/>
       <c r="I46" s="18"/>
       <c r="J46" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="K46" s="43" t="s">
         <v>77</v>
       </c>
-      <c r="K46" s="43" t="s">
-        <v>78</v>
-      </c>
       <c r="L46" s="44">
         <v>1</v>
       </c>
       <c r="M46" s="44" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N46" s="45" t="s">
-        <v>88</v>
-      </c>
-      <c r="O46" s="80" t="s">
-        <v>94</v>
-      </c>
-      <c r="P46" s="80"/>
+        <v>87</v>
+      </c>
+      <c r="O46" s="125" t="s">
+        <v>93</v>
+      </c>
+      <c r="P46" s="125"/>
       <c r="Q46" s="16"/>
       <c r="R46" s="18"/>
       <c r="S46" s="18"/>
@@ -4177,22 +4171,22 @@
       <c r="V47" s="18"/>
       <c r="W47" s="18"/>
       <c r="X47" s="60" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y47" s="61" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z47" s="62" t="s">
         <v>89</v>
       </c>
-      <c r="Y47" s="61" t="s">
-        <v>89</v>
-      </c>
-      <c r="Z47" s="62" t="s">
+      <c r="AA47" s="126" t="s">
         <v>90</v>
       </c>
-      <c r="AA47" s="83" t="s">
-        <v>91</v>
-      </c>
-      <c r="AB47" s="83"/>
-      <c r="AC47" s="84" t="s">
-        <v>109</v>
-      </c>
-      <c r="AD47" s="85"/>
+      <c r="AB47" s="126"/>
+      <c r="AC47" s="127" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD47" s="128"/>
       <c r="AE47" s="20"/>
       <c r="AF47" s="20"/>
       <c r="AG47" s="20"/>
@@ -4222,24 +4216,24 @@
       <c r="O48" s="18"/>
       <c r="P48" s="18"/>
       <c r="Q48" s="56" t="s">
+        <v>79</v>
+      </c>
+      <c r="R48" s="57" t="s">
+        <v>84</v>
+      </c>
+      <c r="S48" s="58" t="s">
         <v>80</v>
       </c>
-      <c r="R48" s="57" t="s">
-        <v>85</v>
-      </c>
-      <c r="S48" s="58" t="s">
-        <v>81</v>
-      </c>
       <c r="T48" s="59" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U48" s="57" t="s">
-        <v>88</v>
-      </c>
-      <c r="V48" s="82" t="s">
-        <v>105</v>
-      </c>
-      <c r="W48" s="82"/>
+        <v>87</v>
+      </c>
+      <c r="V48" s="124" t="s">
+        <v>104</v>
+      </c>
+      <c r="W48" s="124"/>
       <c r="X48" s="21"/>
       <c r="Y48" s="21"/>
       <c r="Z48" s="21"/>
@@ -4269,24 +4263,24 @@
       <c r="H49" s="41"/>
       <c r="I49" s="42"/>
       <c r="J49" s="49" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K49" s="49" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L49" s="50">
         <v>1</v>
       </c>
       <c r="M49" s="50" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N49" s="50" t="s">
-        <v>92</v>
-      </c>
-      <c r="O49" s="81" t="s">
-        <v>95</v>
-      </c>
-      <c r="P49" s="81"/>
+        <v>91</v>
+      </c>
+      <c r="O49" s="129" t="s">
+        <v>94</v>
+      </c>
+      <c r="P49" s="129"/>
       <c r="Q49" s="18"/>
       <c r="R49" s="18"/>
       <c r="S49" s="18"/>
@@ -4310,7 +4304,7 @@
     </row>
     <row r="50" spans="1:36" ht="22.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A50" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B50" s="17" t="s">
         <v>2</v>
@@ -4323,24 +4317,24 @@
       <c r="H50" s="18"/>
       <c r="I50" s="18"/>
       <c r="J50" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="K50" s="43" t="s">
         <v>77</v>
       </c>
-      <c r="K50" s="43" t="s">
-        <v>78</v>
-      </c>
       <c r="L50" s="44">
         <v>1</v>
       </c>
       <c r="M50" s="44" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N50" s="45" t="s">
-        <v>88</v>
-      </c>
-      <c r="O50" s="80" t="s">
-        <v>94</v>
-      </c>
-      <c r="P50" s="80"/>
+        <v>87</v>
+      </c>
+      <c r="O50" s="125" t="s">
+        <v>93</v>
+      </c>
+      <c r="P50" s="125"/>
       <c r="Q50" s="16"/>
       <c r="R50" s="18"/>
       <c r="S50" s="18"/>
@@ -4364,7 +4358,7 @@
     </row>
     <row r="51" spans="1:36" ht="22.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A51" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B51" s="17" t="s">
         <v>2</v>
@@ -4377,24 +4371,24 @@
       <c r="H51" s="18"/>
       <c r="I51" s="18"/>
       <c r="J51" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="K51" s="43" t="s">
         <v>77</v>
       </c>
-      <c r="K51" s="43" t="s">
-        <v>78</v>
-      </c>
       <c r="L51" s="44">
         <v>1</v>
       </c>
       <c r="M51" s="44" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N51" s="45" t="s">
-        <v>88</v>
-      </c>
-      <c r="O51" s="80" t="s">
-        <v>94</v>
-      </c>
-      <c r="P51" s="80"/>
+        <v>87</v>
+      </c>
+      <c r="O51" s="125" t="s">
+        <v>93</v>
+      </c>
+      <c r="P51" s="125"/>
       <c r="Q51" s="16"/>
       <c r="R51" s="18"/>
       <c r="S51" s="18"/>
@@ -4418,7 +4412,7 @@
     </row>
     <row r="52" spans="1:36" ht="22.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A52" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B52" s="17" t="s">
         <v>2</v>
@@ -4431,24 +4425,24 @@
       <c r="H52" s="18"/>
       <c r="I52" s="18"/>
       <c r="J52" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="K52" s="43" t="s">
         <v>77</v>
       </c>
-      <c r="K52" s="43" t="s">
-        <v>78</v>
-      </c>
       <c r="L52" s="44">
         <v>1</v>
       </c>
       <c r="M52" s="44" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N52" s="45" t="s">
-        <v>88</v>
-      </c>
-      <c r="O52" s="80" t="s">
-        <v>94</v>
-      </c>
-      <c r="P52" s="80"/>
+        <v>87</v>
+      </c>
+      <c r="O52" s="125" t="s">
+        <v>93</v>
+      </c>
+      <c r="P52" s="125"/>
       <c r="Q52" s="16"/>
       <c r="R52" s="18"/>
       <c r="S52" s="18"/>
@@ -4472,7 +4466,7 @@
     </row>
     <row r="53" spans="1:36" ht="22.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A53" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B53" s="17" t="s">
         <v>2</v>
@@ -4485,24 +4479,24 @@
       <c r="H53" s="18"/>
       <c r="I53" s="18"/>
       <c r="J53" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="K53" s="43" t="s">
         <v>77</v>
       </c>
-      <c r="K53" s="43" t="s">
-        <v>78</v>
-      </c>
       <c r="L53" s="44">
         <v>1</v>
       </c>
       <c r="M53" s="44" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N53" s="45" t="s">
-        <v>88</v>
-      </c>
-      <c r="O53" s="80" t="s">
-        <v>94</v>
-      </c>
-      <c r="P53" s="80"/>
+        <v>87</v>
+      </c>
+      <c r="O53" s="125" t="s">
+        <v>93</v>
+      </c>
+      <c r="P53" s="125"/>
       <c r="Q53" s="16"/>
       <c r="R53" s="18"/>
       <c r="S53" s="18"/>
@@ -4526,7 +4520,7 @@
     </row>
     <row r="54" spans="1:36" ht="22.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A54" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B54" s="17" t="s">
         <v>2</v>
@@ -4539,24 +4533,24 @@
       <c r="H54" s="18"/>
       <c r="I54" s="18"/>
       <c r="J54" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="K54" s="43" t="s">
         <v>77</v>
       </c>
-      <c r="K54" s="43" t="s">
-        <v>78</v>
-      </c>
       <c r="L54" s="44">
         <v>1</v>
       </c>
       <c r="M54" s="44" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N54" s="45" t="s">
-        <v>88</v>
-      </c>
-      <c r="O54" s="80" t="s">
-        <v>94</v>
-      </c>
-      <c r="P54" s="80"/>
+        <v>87</v>
+      </c>
+      <c r="O54" s="125" t="s">
+        <v>93</v>
+      </c>
+      <c r="P54" s="125"/>
       <c r="Q54" s="16"/>
       <c r="R54" s="18"/>
       <c r="S54" s="18"/>
@@ -4607,22 +4601,22 @@
       <c r="V55" s="18"/>
       <c r="W55" s="18"/>
       <c r="X55" s="60" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y55" s="60" t="s">
         <v>89</v>
       </c>
-      <c r="Y55" s="60" t="s">
+      <c r="Z55" s="62" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA55" s="126" t="s">
         <v>90</v>
       </c>
-      <c r="Z55" s="62" t="s">
-        <v>90</v>
-      </c>
-      <c r="AA55" s="83" t="s">
-        <v>91</v>
-      </c>
-      <c r="AB55" s="83"/>
-      <c r="AC55" s="84" t="s">
-        <v>108</v>
-      </c>
-      <c r="AD55" s="85"/>
+      <c r="AB55" s="126"/>
+      <c r="AC55" s="127" t="s">
+        <v>107</v>
+      </c>
+      <c r="AD55" s="128"/>
       <c r="AE55" s="20"/>
       <c r="AF55" s="20"/>
       <c r="AG55" s="20"/>
@@ -4645,24 +4639,24 @@
       <c r="H56" s="18"/>
       <c r="I56" s="18"/>
       <c r="J56" s="49" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K56" s="50" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L56" s="50">
         <v>1</v>
       </c>
       <c r="M56" s="52" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N56" s="50" t="s">
-        <v>92</v>
-      </c>
-      <c r="O56" s="86" t="s">
-        <v>96</v>
-      </c>
-      <c r="P56" s="87"/>
+        <v>91</v>
+      </c>
+      <c r="O56" s="122" t="s">
+        <v>95</v>
+      </c>
+      <c r="P56" s="123"/>
       <c r="Q56" s="18"/>
       <c r="R56" s="18"/>
       <c r="S56" s="18"/>
@@ -5124,44 +5118,23 @@
     </row>
   </sheetData>
   <mergeCells count="72">
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="J2:P2"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="M3:P3"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="C2:I2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="AC4:AD4"/>
-    <mergeCell ref="AA5:AB5"/>
-    <mergeCell ref="AC5:AD5"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="Q2:W2"/>
-    <mergeCell ref="Q3:S3"/>
-    <mergeCell ref="T3:W3"/>
-    <mergeCell ref="V4:W4"/>
-    <mergeCell ref="V5:W5"/>
-    <mergeCell ref="X2:AD2"/>
-    <mergeCell ref="X3:Z3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AD3"/>
-    <mergeCell ref="AA4:AB4"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="V22:W22"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="V23:W23"/>
-    <mergeCell ref="V24:W24"/>
-    <mergeCell ref="V25:W25"/>
-    <mergeCell ref="V26:W26"/>
-    <mergeCell ref="V32:W32"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="O53:P53"/>
+    <mergeCell ref="O27:P27"/>
+    <mergeCell ref="O28:P28"/>
+    <mergeCell ref="O29:P29"/>
+    <mergeCell ref="O30:P30"/>
+    <mergeCell ref="O54:P54"/>
+    <mergeCell ref="O49:P49"/>
+    <mergeCell ref="O34:P34"/>
+    <mergeCell ref="O35:P35"/>
+    <mergeCell ref="O36:P36"/>
+    <mergeCell ref="O37:P37"/>
+    <mergeCell ref="O38:P38"/>
+    <mergeCell ref="O42:P42"/>
+    <mergeCell ref="O46:P46"/>
+    <mergeCell ref="O50:P50"/>
+    <mergeCell ref="O51:P51"/>
+    <mergeCell ref="O52:P52"/>
     <mergeCell ref="O31:P31"/>
     <mergeCell ref="V48:W48"/>
     <mergeCell ref="AA55:AB55"/>
@@ -5178,24 +5151,45 @@
     <mergeCell ref="O44:P44"/>
     <mergeCell ref="O45:P45"/>
     <mergeCell ref="O33:P33"/>
+    <mergeCell ref="V23:W23"/>
+    <mergeCell ref="V24:W24"/>
+    <mergeCell ref="V25:W25"/>
+    <mergeCell ref="V26:W26"/>
+    <mergeCell ref="V32:W32"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="V22:W22"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="O12:P12"/>
     <mergeCell ref="O21:P21"/>
-    <mergeCell ref="O27:P27"/>
-    <mergeCell ref="O28:P28"/>
-    <mergeCell ref="O29:P29"/>
-    <mergeCell ref="O30:P30"/>
-    <mergeCell ref="O54:P54"/>
-    <mergeCell ref="O49:P49"/>
-    <mergeCell ref="O34:P34"/>
-    <mergeCell ref="O35:P35"/>
-    <mergeCell ref="O36:P36"/>
-    <mergeCell ref="O37:P37"/>
-    <mergeCell ref="O38:P38"/>
-    <mergeCell ref="O42:P42"/>
-    <mergeCell ref="O46:P46"/>
-    <mergeCell ref="O50:P50"/>
-    <mergeCell ref="O51:P51"/>
-    <mergeCell ref="O52:P52"/>
-    <mergeCell ref="O53:P53"/>
+    <mergeCell ref="AC4:AD4"/>
+    <mergeCell ref="AA5:AB5"/>
+    <mergeCell ref="AC5:AD5"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="Q2:W2"/>
+    <mergeCell ref="Q3:S3"/>
+    <mergeCell ref="T3:W3"/>
+    <mergeCell ref="V4:W4"/>
+    <mergeCell ref="V5:W5"/>
+    <mergeCell ref="X2:AD2"/>
+    <mergeCell ref="X3:Z3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AD3"/>
+    <mergeCell ref="AA4:AB4"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="J2:P2"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="M3:P3"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="C2:I2"/>
+    <mergeCell ref="C3:E3"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5206,8 +5200,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A32CB0BE-C951-429C-BF88-99B180BC0C90}">
   <dimension ref="A1:K54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17:I17"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K47" sqref="K47:K51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5223,21 +5217,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="27" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="131" t="s">
+      <c r="A1" s="130" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1" s="130"/>
+      <c r="C1" s="135" t="s">
         <v>110</v>
       </c>
-      <c r="B1" s="131"/>
-      <c r="C1" s="134" t="s">
-        <v>111</v>
-      </c>
-      <c r="D1" s="134"/>
-      <c r="E1" s="134"/>
-      <c r="F1" s="134"/>
-      <c r="G1" s="134"/>
-      <c r="H1" s="134"/>
-      <c r="I1" s="134"/>
-      <c r="J1" s="134"/>
-      <c r="K1" s="134"/>
+      <c r="D1" s="135"/>
+      <c r="E1" s="135"/>
+      <c r="F1" s="135"/>
+      <c r="G1" s="135"/>
+      <c r="H1" s="135"/>
+      <c r="I1" s="135"/>
+      <c r="J1" s="135"/>
+      <c r="K1" s="135"/>
     </row>
     <row r="2" spans="1:11" ht="22.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="19" t="s">
@@ -5246,15 +5240,15 @@
       <c r="B2" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="128" t="s">
+      <c r="C2" s="140" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="129"/>
-      <c r="E2" s="129"/>
-      <c r="F2" s="129"/>
-      <c r="G2" s="129"/>
-      <c r="H2" s="129"/>
-      <c r="I2" s="129"/>
+      <c r="D2" s="141"/>
+      <c r="E2" s="141"/>
+      <c r="F2" s="141"/>
+      <c r="G2" s="141"/>
+      <c r="H2" s="141"/>
+      <c r="I2" s="141"/>
       <c r="J2" s="63" t="s">
         <v>22</v>
       </c>
@@ -5270,26 +5264,26 @@
         <v>0</v>
       </c>
       <c r="C3" s="64" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D3" s="64" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E3" s="65">
         <v>1</v>
       </c>
       <c r="F3" s="65" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G3" s="66" t="s">
-        <v>88</v>
-      </c>
-      <c r="H3" s="132" t="s">
-        <v>95</v>
-      </c>
-      <c r="I3" s="133"/>
+        <v>87</v>
+      </c>
+      <c r="H3" s="131" t="s">
+        <v>94</v>
+      </c>
+      <c r="I3" s="132"/>
       <c r="J3" s="17" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="K3" s="1">
         <v>64400001</v>
@@ -5303,29 +5297,29 @@
         <v>1</v>
       </c>
       <c r="C4" s="64" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D4" s="64" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E4" s="65">
         <v>1</v>
       </c>
       <c r="F4" s="65" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G4" s="66" t="s">
-        <v>88</v>
-      </c>
-      <c r="H4" s="127" t="s">
-        <v>96</v>
-      </c>
-      <c r="I4" s="127"/>
+        <v>87</v>
+      </c>
+      <c r="H4" s="133" t="s">
+        <v>95</v>
+      </c>
+      <c r="I4" s="133"/>
       <c r="J4" s="17" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="22.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -5336,29 +5330,29 @@
         <v>2</v>
       </c>
       <c r="C5" s="67" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D5" s="67" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="E5" s="68">
         <v>1</v>
       </c>
       <c r="F5" s="68" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G5" s="69" t="s">
-        <v>88</v>
-      </c>
-      <c r="H5" s="124" t="s">
-        <v>94</v>
-      </c>
-      <c r="I5" s="124"/>
+        <v>87</v>
+      </c>
+      <c r="H5" s="134" t="s">
+        <v>93</v>
+      </c>
+      <c r="I5" s="134"/>
       <c r="J5" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>136</v>
+        <v>147</v>
+      </c>
+      <c r="K5" s="1">
+        <v>64000000</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="22.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -5369,29 +5363,29 @@
         <v>2</v>
       </c>
       <c r="C6" s="67" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D6" s="67" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="E6" s="68">
         <v>1</v>
       </c>
       <c r="F6" s="68" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G6" s="69" t="s">
-        <v>88</v>
-      </c>
-      <c r="H6" s="124" t="s">
-        <v>94</v>
-      </c>
-      <c r="I6" s="124"/>
+        <v>87</v>
+      </c>
+      <c r="H6" s="134" t="s">
+        <v>93</v>
+      </c>
+      <c r="I6" s="134"/>
       <c r="J6" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>136</v>
+        <v>147</v>
+      </c>
+      <c r="K6" s="1">
+        <v>64000000</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="22.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -5402,29 +5396,29 @@
         <v>2</v>
       </c>
       <c r="C7" s="67" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D7" s="67" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="E7" s="68">
         <v>1</v>
       </c>
       <c r="F7" s="68" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G7" s="69" t="s">
-        <v>88</v>
-      </c>
-      <c r="H7" s="124" t="s">
-        <v>94</v>
-      </c>
-      <c r="I7" s="124"/>
+        <v>87</v>
+      </c>
+      <c r="H7" s="134" t="s">
+        <v>93</v>
+      </c>
+      <c r="I7" s="134"/>
       <c r="J7" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>136</v>
+        <v>147</v>
+      </c>
+      <c r="K7" s="1">
+        <v>64000000</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="22.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -5435,29 +5429,29 @@
         <v>2</v>
       </c>
       <c r="C8" s="67" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D8" s="67" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="E8" s="68">
         <v>1</v>
       </c>
       <c r="F8" s="68" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G8" s="69" t="s">
-        <v>88</v>
-      </c>
-      <c r="H8" s="124" t="s">
-        <v>94</v>
-      </c>
-      <c r="I8" s="124"/>
+        <v>87</v>
+      </c>
+      <c r="H8" s="134" t="s">
+        <v>93</v>
+      </c>
+      <c r="I8" s="134"/>
       <c r="J8" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>136</v>
+        <v>147</v>
+      </c>
+      <c r="K8" s="1">
+        <v>64000000</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="22.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -5468,29 +5462,29 @@
         <v>2</v>
       </c>
       <c r="C9" s="67" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D9" s="67" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="E9" s="68">
         <v>1</v>
       </c>
       <c r="F9" s="68" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G9" s="69" t="s">
-        <v>88</v>
-      </c>
-      <c r="H9" s="124" t="s">
-        <v>94</v>
-      </c>
-      <c r="I9" s="124"/>
+        <v>87</v>
+      </c>
+      <c r="H9" s="134" t="s">
+        <v>93</v>
+      </c>
+      <c r="I9" s="134"/>
       <c r="J9" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>136</v>
+        <v>147</v>
+      </c>
+      <c r="K9" s="1">
+        <v>64000000</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="22.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -5501,31 +5495,31 @@
         <v>3</v>
       </c>
       <c r="C10" s="70" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D10" s="70" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E10" s="71">
         <v>0</v>
       </c>
       <c r="F10" s="71" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G10" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="H10" s="71" t="s">
         <v>92</v>
       </c>
-      <c r="H10" s="71" t="s">
-        <v>93</v>
-      </c>
       <c r="I10" s="72" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J10" s="17" t="s">
-        <v>127</v>
-      </c>
-      <c r="K10" s="135" t="s">
-        <v>137</v>
+        <v>125</v>
+      </c>
+      <c r="K10" s="80" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="22.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -5536,28 +5530,28 @@
         <v>4</v>
       </c>
       <c r="C11" s="70" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D11" s="71" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E11" s="71">
         <v>0</v>
       </c>
       <c r="F11" s="71" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G11" s="71" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H11" s="71" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I11" s="72" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J11" s="17" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="K11" s="1">
         <v>49084000</v>
@@ -5571,28 +5565,28 @@
         <v>5</v>
       </c>
       <c r="C12" s="70" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D12" s="71" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E12" s="71">
         <v>0</v>
       </c>
       <c r="F12" s="71" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G12" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="H12" s="71" t="s">
         <v>92</v>
       </c>
-      <c r="H12" s="71" t="s">
-        <v>93</v>
-      </c>
       <c r="I12" s="72" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J12" s="17" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K12" s="1">
         <v>51448000</v>
@@ -5606,28 +5600,28 @@
         <v>6</v>
       </c>
       <c r="C13" s="70" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D13" s="70" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E13" s="71">
         <v>0</v>
       </c>
       <c r="F13" s="71" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G13" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="H13" s="71" t="s">
         <v>92</v>
       </c>
-      <c r="H13" s="71" t="s">
-        <v>93</v>
-      </c>
       <c r="I13" s="72" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J13" s="17" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K13" s="1">
         <v>59848000</v>
@@ -5635,200 +5629,200 @@
     </row>
     <row r="14" spans="1:11" ht="22.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A14" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B14" s="17" t="s">
         <v>2</v>
       </c>
       <c r="C14" s="67" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D14" s="67" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="E14" s="68">
         <v>1</v>
       </c>
       <c r="F14" s="68" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G14" s="69" t="s">
-        <v>88</v>
-      </c>
-      <c r="H14" s="124" t="s">
-        <v>94</v>
-      </c>
-      <c r="I14" s="124"/>
+        <v>87</v>
+      </c>
+      <c r="H14" s="134" t="s">
+        <v>93</v>
+      </c>
+      <c r="I14" s="134"/>
       <c r="J14" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>136</v>
+        <v>147</v>
+      </c>
+      <c r="K14" s="1">
+        <v>64000000</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="22.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A15" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B15" s="17" t="s">
         <v>2</v>
       </c>
       <c r="C15" s="67" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D15" s="67" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="E15" s="68">
         <v>1</v>
       </c>
       <c r="F15" s="68" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G15" s="69" t="s">
-        <v>88</v>
-      </c>
-      <c r="H15" s="124" t="s">
-        <v>94</v>
-      </c>
-      <c r="I15" s="124"/>
+        <v>87</v>
+      </c>
+      <c r="H15" s="134" t="s">
+        <v>93</v>
+      </c>
+      <c r="I15" s="134"/>
       <c r="J15" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>136</v>
+        <v>147</v>
+      </c>
+      <c r="K15" s="1">
+        <v>64000000</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="22.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A16" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B16" s="17" t="s">
         <v>2</v>
       </c>
       <c r="C16" s="67" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D16" s="67" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="E16" s="68">
         <v>1</v>
       </c>
       <c r="F16" s="68" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G16" s="69" t="s">
-        <v>88</v>
-      </c>
-      <c r="H16" s="124" t="s">
-        <v>94</v>
-      </c>
-      <c r="I16" s="124"/>
+        <v>87</v>
+      </c>
+      <c r="H16" s="134" t="s">
+        <v>93</v>
+      </c>
+      <c r="I16" s="134"/>
       <c r="J16" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>136</v>
+        <v>147</v>
+      </c>
+      <c r="K16" s="1">
+        <v>64000000</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="22.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A17" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B17" s="17" t="s">
         <v>2</v>
       </c>
       <c r="C17" s="67" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D17" s="67" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="E17" s="68">
         <v>1</v>
       </c>
       <c r="F17" s="68" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G17" s="69" t="s">
-        <v>88</v>
-      </c>
-      <c r="H17" s="124" t="s">
-        <v>94</v>
-      </c>
-      <c r="I17" s="124"/>
+        <v>87</v>
+      </c>
+      <c r="H17" s="134" t="s">
+        <v>93</v>
+      </c>
+      <c r="I17" s="134"/>
       <c r="J17" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>136</v>
+        <v>147</v>
+      </c>
+      <c r="K17" s="1">
+        <v>64000000</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="22.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A18" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B18" s="17" t="s">
         <v>2</v>
       </c>
       <c r="C18" s="67" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D18" s="67" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="E18" s="68">
         <v>1</v>
       </c>
       <c r="F18" s="68" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G18" s="69" t="s">
-        <v>88</v>
-      </c>
-      <c r="H18" s="124" t="s">
-        <v>94</v>
-      </c>
-      <c r="I18" s="124"/>
+        <v>87</v>
+      </c>
+      <c r="H18" s="134" t="s">
+        <v>93</v>
+      </c>
+      <c r="I18" s="134"/>
       <c r="J18" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" s="141" customFormat="1" ht="22.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="136" t="s">
+        <v>147</v>
+      </c>
+      <c r="K18" s="1">
+        <v>64000000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" s="85" customFormat="1" ht="22.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="81" t="s">
         <v>31</v>
       </c>
       <c r="B19" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="137" t="s">
+      <c r="C19" s="82" t="s">
+        <v>79</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="E19" s="83" t="s">
         <v>80</v>
       </c>
-      <c r="D19" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="E19" s="138" t="s">
-        <v>81</v>
-      </c>
       <c r="F19" s="19" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G19" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="H19" s="139" t="s">
-        <v>102</v>
-      </c>
-      <c r="I19" s="139"/>
+        <v>87</v>
+      </c>
+      <c r="H19" s="137" t="s">
+        <v>101</v>
+      </c>
+      <c r="I19" s="137"/>
       <c r="J19" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="K19" s="140" t="s">
-        <v>119</v>
+        <v>111</v>
+      </c>
+      <c r="K19" s="84" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="22.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -5839,29 +5833,29 @@
         <v>8</v>
       </c>
       <c r="C20" s="73" t="s">
+        <v>79</v>
+      </c>
+      <c r="D20" s="74" t="s">
+        <v>84</v>
+      </c>
+      <c r="E20" s="75" t="s">
         <v>80</v>
       </c>
-      <c r="D20" s="74" t="s">
-        <v>85</v>
-      </c>
-      <c r="E20" s="75" t="s">
-        <v>81</v>
-      </c>
       <c r="F20" s="74" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G20" s="74" t="s">
-        <v>88</v>
-      </c>
-      <c r="H20" s="130" t="s">
-        <v>103</v>
-      </c>
-      <c r="I20" s="130"/>
+        <v>87</v>
+      </c>
+      <c r="H20" s="136" t="s">
+        <v>102</v>
+      </c>
+      <c r="I20" s="136"/>
       <c r="J20" s="17" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="22.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -5872,29 +5866,29 @@
         <v>9</v>
       </c>
       <c r="C21" s="73" t="s">
+        <v>79</v>
+      </c>
+      <c r="D21" s="74" t="s">
+        <v>84</v>
+      </c>
+      <c r="E21" s="75" t="s">
         <v>80</v>
       </c>
-      <c r="D21" s="74" t="s">
-        <v>85</v>
-      </c>
-      <c r="E21" s="75" t="s">
-        <v>81</v>
-      </c>
       <c r="F21" s="74" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G21" s="74" t="s">
-        <v>88</v>
-      </c>
-      <c r="H21" s="130" t="s">
-        <v>104</v>
-      </c>
-      <c r="I21" s="130"/>
+        <v>87</v>
+      </c>
+      <c r="H21" s="136" t="s">
+        <v>103</v>
+      </c>
+      <c r="I21" s="136"/>
       <c r="J21" s="17" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="22.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -5905,227 +5899,227 @@
         <v>10</v>
       </c>
       <c r="C22" s="73" t="s">
+        <v>79</v>
+      </c>
+      <c r="D22" s="74" t="s">
+        <v>84</v>
+      </c>
+      <c r="E22" s="75" t="s">
         <v>80</v>
       </c>
-      <c r="D22" s="74" t="s">
-        <v>85</v>
-      </c>
-      <c r="E22" s="75" t="s">
-        <v>81</v>
-      </c>
       <c r="F22" s="74" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G22" s="74" t="s">
-        <v>88</v>
-      </c>
-      <c r="H22" s="130" t="s">
-        <v>105</v>
-      </c>
-      <c r="I22" s="130"/>
+        <v>87</v>
+      </c>
+      <c r="H22" s="136" t="s">
+        <v>104</v>
+      </c>
+      <c r="I22" s="136"/>
       <c r="J22" s="17" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" s="141" customFormat="1" ht="22.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="136" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" s="85" customFormat="1" ht="22.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="81" t="s">
         <v>35</v>
       </c>
       <c r="B23" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="137" t="s">
+      <c r="C23" s="82" t="s">
+        <v>79</v>
+      </c>
+      <c r="D23" s="82" t="s">
+        <v>85</v>
+      </c>
+      <c r="E23" s="83" t="s">
         <v>80</v>
       </c>
-      <c r="D23" s="137" t="s">
-        <v>86</v>
-      </c>
-      <c r="E23" s="138" t="s">
-        <v>81</v>
-      </c>
       <c r="F23" s="19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G23" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="H23" s="139" t="s">
-        <v>106</v>
-      </c>
-      <c r="I23" s="139"/>
+        <v>87</v>
+      </c>
+      <c r="H23" s="137" t="s">
+        <v>105</v>
+      </c>
+      <c r="I23" s="137"/>
       <c r="J23" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="K23" s="140" t="s">
-        <v>123</v>
+        <v>115</v>
+      </c>
+      <c r="K23" s="84" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="22.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A24" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B24" s="17" t="s">
         <v>2</v>
       </c>
       <c r="C24" s="67" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D24" s="67" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="E24" s="68">
         <v>1</v>
       </c>
       <c r="F24" s="68" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G24" s="69" t="s">
-        <v>88</v>
-      </c>
-      <c r="H24" s="124" t="s">
-        <v>94</v>
-      </c>
-      <c r="I24" s="124"/>
+        <v>87</v>
+      </c>
+      <c r="H24" s="134" t="s">
+        <v>93</v>
+      </c>
+      <c r="I24" s="134"/>
       <c r="J24" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="K24" s="1" t="s">
-        <v>136</v>
+        <v>147</v>
+      </c>
+      <c r="K24" s="1">
+        <v>64000000</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="22.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B25" s="17" t="s">
         <v>2</v>
       </c>
       <c r="C25" s="67" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D25" s="67" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="E25" s="68">
         <v>1</v>
       </c>
       <c r="F25" s="68" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G25" s="69" t="s">
-        <v>88</v>
-      </c>
-      <c r="H25" s="124" t="s">
-        <v>94</v>
-      </c>
-      <c r="I25" s="124"/>
+        <v>87</v>
+      </c>
+      <c r="H25" s="134" t="s">
+        <v>93</v>
+      </c>
+      <c r="I25" s="134"/>
       <c r="J25" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="K25" s="1" t="s">
-        <v>136</v>
+        <v>147</v>
+      </c>
+      <c r="K25" s="1">
+        <v>64000000</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="22.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A26" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B26" s="17" t="s">
         <v>2</v>
       </c>
       <c r="C26" s="67" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D26" s="67" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="E26" s="68">
         <v>1</v>
       </c>
       <c r="F26" s="68" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G26" s="69" t="s">
-        <v>88</v>
-      </c>
-      <c r="H26" s="124" t="s">
-        <v>94</v>
-      </c>
-      <c r="I26" s="124"/>
+        <v>87</v>
+      </c>
+      <c r="H26" s="134" t="s">
+        <v>93</v>
+      </c>
+      <c r="I26" s="134"/>
       <c r="J26" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="K26" s="1" t="s">
-        <v>136</v>
+        <v>147</v>
+      </c>
+      <c r="K26" s="1">
+        <v>64000000</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="22.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A27" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B27" s="17" t="s">
         <v>2</v>
       </c>
       <c r="C27" s="67" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D27" s="67" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="E27" s="68">
         <v>1</v>
       </c>
       <c r="F27" s="68" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G27" s="69" t="s">
-        <v>88</v>
-      </c>
-      <c r="H27" s="124" t="s">
-        <v>94</v>
-      </c>
-      <c r="I27" s="124"/>
+        <v>87</v>
+      </c>
+      <c r="H27" s="134" t="s">
+        <v>93</v>
+      </c>
+      <c r="I27" s="134"/>
       <c r="J27" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="K27" s="1" t="s">
-        <v>136</v>
+        <v>147</v>
+      </c>
+      <c r="K27" s="1">
+        <v>64000000</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="22.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A28" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B28" s="17" t="s">
         <v>2</v>
       </c>
       <c r="C28" s="67" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D28" s="67" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="E28" s="68">
         <v>1</v>
       </c>
       <c r="F28" s="68" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G28" s="69" t="s">
-        <v>88</v>
-      </c>
-      <c r="H28" s="124" t="s">
-        <v>94</v>
-      </c>
-      <c r="I28" s="124"/>
+        <v>87</v>
+      </c>
+      <c r="H28" s="134" t="s">
+        <v>93</v>
+      </c>
+      <c r="I28" s="134"/>
       <c r="J28" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="K28" s="1" t="s">
-        <v>136</v>
+        <v>147</v>
+      </c>
+      <c r="K28" s="1">
+        <v>64000000</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="22.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -6136,29 +6130,29 @@
         <v>12</v>
       </c>
       <c r="C29" s="73" t="s">
+        <v>79</v>
+      </c>
+      <c r="D29" s="74" t="s">
+        <v>84</v>
+      </c>
+      <c r="E29" s="75" t="s">
         <v>80</v>
       </c>
-      <c r="D29" s="74" t="s">
-        <v>85</v>
-      </c>
-      <c r="E29" s="75" t="s">
-        <v>81</v>
-      </c>
       <c r="F29" s="74" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G29" s="74" t="s">
-        <v>88</v>
-      </c>
-      <c r="H29" s="130" t="s">
-        <v>106</v>
-      </c>
-      <c r="I29" s="130"/>
+        <v>87</v>
+      </c>
+      <c r="H29" s="136" t="s">
+        <v>105</v>
+      </c>
+      <c r="I29" s="136"/>
       <c r="J29" s="17" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="22.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -6169,194 +6163,194 @@
         <v>13</v>
       </c>
       <c r="C30" s="64" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D30" s="65" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E30" s="65">
         <v>1</v>
       </c>
       <c r="F30" s="66" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G30" s="65" t="s">
-        <v>101</v>
-      </c>
-      <c r="H30" s="127" t="s">
-        <v>107</v>
-      </c>
-      <c r="I30" s="127"/>
+        <v>100</v>
+      </c>
+      <c r="H30" s="133" t="s">
+        <v>106</v>
+      </c>
+      <c r="I30" s="133"/>
       <c r="J30" s="17" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="22.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A31" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B31" s="17" t="s">
         <v>2</v>
       </c>
       <c r="C31" s="67" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D31" s="67" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="E31" s="68">
         <v>1</v>
       </c>
       <c r="F31" s="68" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G31" s="69" t="s">
-        <v>88</v>
-      </c>
-      <c r="H31" s="124" t="s">
-        <v>94</v>
-      </c>
-      <c r="I31" s="124"/>
+        <v>87</v>
+      </c>
+      <c r="H31" s="134" t="s">
+        <v>93</v>
+      </c>
+      <c r="I31" s="134"/>
       <c r="J31" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="K31" s="1" t="s">
-        <v>136</v>
+        <v>147</v>
+      </c>
+      <c r="K31" s="1">
+        <v>64000000</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="22.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A32" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B32" s="17" t="s">
         <v>2</v>
       </c>
       <c r="C32" s="67" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D32" s="67" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="E32" s="68">
         <v>1</v>
       </c>
       <c r="F32" s="68" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G32" s="69" t="s">
-        <v>88</v>
-      </c>
-      <c r="H32" s="124" t="s">
-        <v>94</v>
-      </c>
-      <c r="I32" s="124"/>
+        <v>87</v>
+      </c>
+      <c r="H32" s="134" t="s">
+        <v>93</v>
+      </c>
+      <c r="I32" s="134"/>
       <c r="J32" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="K32" s="1" t="s">
-        <v>136</v>
+        <v>147</v>
+      </c>
+      <c r="K32" s="1">
+        <v>64000000</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="22.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A33" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B33" s="17" t="s">
         <v>2</v>
       </c>
       <c r="C33" s="67" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D33" s="67" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="E33" s="68">
         <v>1</v>
       </c>
       <c r="F33" s="68" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G33" s="69" t="s">
-        <v>88</v>
-      </c>
-      <c r="H33" s="124" t="s">
-        <v>94</v>
-      </c>
-      <c r="I33" s="124"/>
+        <v>87</v>
+      </c>
+      <c r="H33" s="134" t="s">
+        <v>93</v>
+      </c>
+      <c r="I33" s="134"/>
       <c r="J33" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="K33" s="1" t="s">
-        <v>136</v>
+        <v>147</v>
+      </c>
+      <c r="K33" s="1">
+        <v>64000000</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="22.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A34" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B34" s="17" t="s">
         <v>2</v>
       </c>
       <c r="C34" s="67" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D34" s="67" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="E34" s="68">
         <v>1</v>
       </c>
       <c r="F34" s="68" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G34" s="69" t="s">
-        <v>88</v>
-      </c>
-      <c r="H34" s="124" t="s">
-        <v>94</v>
-      </c>
-      <c r="I34" s="124"/>
+        <v>87</v>
+      </c>
+      <c r="H34" s="134" t="s">
+        <v>93</v>
+      </c>
+      <c r="I34" s="134"/>
       <c r="J34" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="K34" s="1" t="s">
-        <v>136</v>
+        <v>147</v>
+      </c>
+      <c r="K34" s="1">
+        <v>64000000</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="22.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A35" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B35" s="17" t="s">
         <v>2</v>
       </c>
       <c r="C35" s="67" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D35" s="67" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="E35" s="68">
         <v>1</v>
       </c>
       <c r="F35" s="68" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G35" s="69" t="s">
-        <v>88</v>
-      </c>
-      <c r="H35" s="124" t="s">
-        <v>94</v>
-      </c>
-      <c r="I35" s="124"/>
+        <v>87</v>
+      </c>
+      <c r="H35" s="134" t="s">
+        <v>93</v>
+      </c>
+      <c r="I35" s="134"/>
       <c r="J35" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="K35" s="1" t="s">
-        <v>136</v>
+        <v>147</v>
+      </c>
+      <c r="K35" s="1">
+        <v>64000000</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="22.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -6367,27 +6361,27 @@
         <v>14</v>
       </c>
       <c r="C36" s="76" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D36" s="77" t="s">
+        <v>88</v>
+      </c>
+      <c r="E36" s="78" t="s">
         <v>89</v>
       </c>
-      <c r="E36" s="78" t="s">
+      <c r="F36" s="138" t="s">
         <v>90</v>
       </c>
-      <c r="F36" s="125" t="s">
-        <v>91</v>
-      </c>
-      <c r="G36" s="125"/>
-      <c r="H36" s="126" t="s">
-        <v>108</v>
-      </c>
-      <c r="I36" s="126"/>
+      <c r="G36" s="138"/>
+      <c r="H36" s="139" t="s">
+        <v>107</v>
+      </c>
+      <c r="I36" s="139"/>
       <c r="J36" s="17" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="22.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -6398,27 +6392,27 @@
         <v>15</v>
       </c>
       <c r="C37" s="76" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D37" s="76" t="s">
+        <v>89</v>
+      </c>
+      <c r="E37" s="78" t="s">
+        <v>89</v>
+      </c>
+      <c r="F37" s="138" t="s">
         <v>90</v>
       </c>
-      <c r="E37" s="78" t="s">
-        <v>90</v>
-      </c>
-      <c r="F37" s="125" t="s">
-        <v>91</v>
-      </c>
-      <c r="G37" s="125"/>
-      <c r="H37" s="126" t="s">
-        <v>109</v>
-      </c>
-      <c r="I37" s="126"/>
+      <c r="G37" s="138"/>
+      <c r="H37" s="139" t="s">
+        <v>108</v>
+      </c>
+      <c r="I37" s="139"/>
       <c r="J37" s="17" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="22.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -6429,194 +6423,194 @@
         <v>16</v>
       </c>
       <c r="C38" s="64" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D38" s="65" t="s">
+        <v>139</v>
+      </c>
+      <c r="E38" s="65">
+        <v>1</v>
+      </c>
+      <c r="F38" s="66" t="s">
+        <v>87</v>
+      </c>
+      <c r="G38" s="65" t="s">
+        <v>91</v>
+      </c>
+      <c r="H38" s="133" t="s">
+        <v>95</v>
+      </c>
+      <c r="I38" s="133"/>
+      <c r="J38" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="K38" s="1" t="s">
         <v>142</v>
-      </c>
-      <c r="E38" s="65">
-        <v>1</v>
-      </c>
-      <c r="F38" s="66" t="s">
-        <v>88</v>
-      </c>
-      <c r="G38" s="65" t="s">
-        <v>92</v>
-      </c>
-      <c r="H38" s="127" t="s">
-        <v>96</v>
-      </c>
-      <c r="I38" s="127"/>
-      <c r="J38" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="K38" s="1" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="22.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A39" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B39" s="17" t="s">
         <v>2</v>
       </c>
       <c r="C39" s="67" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D39" s="67" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="E39" s="68">
         <v>1</v>
       </c>
       <c r="F39" s="68" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G39" s="69" t="s">
-        <v>88</v>
-      </c>
-      <c r="H39" s="124" t="s">
-        <v>94</v>
-      </c>
-      <c r="I39" s="124"/>
+        <v>87</v>
+      </c>
+      <c r="H39" s="134" t="s">
+        <v>93</v>
+      </c>
+      <c r="I39" s="134"/>
       <c r="J39" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="K39" s="1" t="s">
-        <v>136</v>
+        <v>147</v>
+      </c>
+      <c r="K39" s="1">
+        <v>64000000</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="22.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A40" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B40" s="17" t="s">
         <v>2</v>
       </c>
       <c r="C40" s="67" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D40" s="67" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="E40" s="68">
         <v>1</v>
       </c>
       <c r="F40" s="68" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G40" s="69" t="s">
-        <v>88</v>
-      </c>
-      <c r="H40" s="124" t="s">
-        <v>94</v>
-      </c>
-      <c r="I40" s="124"/>
+        <v>87</v>
+      </c>
+      <c r="H40" s="134" t="s">
+        <v>93</v>
+      </c>
+      <c r="I40" s="134"/>
       <c r="J40" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="K40" s="1" t="s">
-        <v>136</v>
+        <v>147</v>
+      </c>
+      <c r="K40" s="1">
+        <v>64000000</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="22.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A41" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B41" s="17" t="s">
         <v>2</v>
       </c>
       <c r="C41" s="67" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D41" s="67" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="E41" s="68">
         <v>1</v>
       </c>
       <c r="F41" s="68" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G41" s="69" t="s">
-        <v>88</v>
-      </c>
-      <c r="H41" s="124" t="s">
-        <v>94</v>
-      </c>
-      <c r="I41" s="124"/>
+        <v>87</v>
+      </c>
+      <c r="H41" s="134" t="s">
+        <v>93</v>
+      </c>
+      <c r="I41" s="134"/>
       <c r="J41" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="K41" s="1" t="s">
-        <v>136</v>
+        <v>147</v>
+      </c>
+      <c r="K41" s="1">
+        <v>64000000</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="22.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A42" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B42" s="17" t="s">
         <v>2</v>
       </c>
       <c r="C42" s="67" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D42" s="67" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="E42" s="68">
         <v>1</v>
       </c>
       <c r="F42" s="68" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G42" s="69" t="s">
-        <v>88</v>
-      </c>
-      <c r="H42" s="124" t="s">
-        <v>94</v>
-      </c>
-      <c r="I42" s="124"/>
+        <v>87</v>
+      </c>
+      <c r="H42" s="134" t="s">
+        <v>93</v>
+      </c>
+      <c r="I42" s="134"/>
       <c r="J42" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="K42" s="1" t="s">
-        <v>136</v>
+        <v>147</v>
+      </c>
+      <c r="K42" s="1">
+        <v>64000000</v>
       </c>
     </row>
     <row r="43" spans="1:11" ht="22.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A43" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B43" s="17" t="s">
         <v>2</v>
       </c>
       <c r="C43" s="67" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D43" s="67" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="E43" s="68">
         <v>1</v>
       </c>
       <c r="F43" s="68" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G43" s="69" t="s">
-        <v>88</v>
-      </c>
-      <c r="H43" s="124" t="s">
-        <v>94</v>
-      </c>
-      <c r="I43" s="124"/>
+        <v>87</v>
+      </c>
+      <c r="H43" s="134" t="s">
+        <v>93</v>
+      </c>
+      <c r="I43" s="134"/>
       <c r="J43" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="K43" s="1" t="s">
-        <v>136</v>
+        <v>147</v>
+      </c>
+      <c r="K43" s="1">
+        <v>64000000</v>
       </c>
     </row>
     <row r="44" spans="1:11" ht="22.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -6627,27 +6621,27 @@
         <v>17</v>
       </c>
       <c r="C44" s="76" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D44" s="77" t="s">
+        <v>88</v>
+      </c>
+      <c r="E44" s="78" t="s">
         <v>89</v>
       </c>
-      <c r="E44" s="78" t="s">
+      <c r="F44" s="138" t="s">
         <v>90</v>
       </c>
-      <c r="F44" s="125" t="s">
-        <v>91</v>
-      </c>
-      <c r="G44" s="125"/>
-      <c r="H44" s="126" t="s">
-        <v>109</v>
-      </c>
-      <c r="I44" s="126"/>
+      <c r="G44" s="138"/>
+      <c r="H44" s="139" t="s">
+        <v>108</v>
+      </c>
+      <c r="I44" s="139"/>
       <c r="J44" s="17" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="45" spans="1:11" ht="22.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -6658,29 +6652,29 @@
         <v>18</v>
       </c>
       <c r="C45" s="73" t="s">
+        <v>79</v>
+      </c>
+      <c r="D45" s="74" t="s">
+        <v>84</v>
+      </c>
+      <c r="E45" s="75" t="s">
         <v>80</v>
       </c>
-      <c r="D45" s="74" t="s">
-        <v>85</v>
-      </c>
-      <c r="E45" s="75" t="s">
-        <v>81</v>
-      </c>
       <c r="F45" s="74" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G45" s="74" t="s">
-        <v>88</v>
-      </c>
-      <c r="H45" s="130" t="s">
-        <v>105</v>
-      </c>
-      <c r="I45" s="130"/>
+        <v>87</v>
+      </c>
+      <c r="H45" s="136" t="s">
+        <v>104</v>
+      </c>
+      <c r="I45" s="136"/>
       <c r="J45" s="17" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="46" spans="1:11" ht="22.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -6691,26 +6685,26 @@
         <v>19</v>
       </c>
       <c r="C46" s="64" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D46" s="64" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E46" s="65">
         <v>1</v>
       </c>
       <c r="F46" s="65" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G46" s="65" t="s">
-        <v>92</v>
-      </c>
-      <c r="H46" s="127" t="s">
-        <v>95</v>
-      </c>
-      <c r="I46" s="127"/>
+        <v>91</v>
+      </c>
+      <c r="H46" s="133" t="s">
+        <v>94</v>
+      </c>
+      <c r="I46" s="133"/>
       <c r="J46" s="17" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="K46" s="1">
         <v>44440001</v>
@@ -6718,167 +6712,167 @@
     </row>
     <row r="47" spans="1:11" ht="22.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A47" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B47" s="17" t="s">
         <v>2</v>
       </c>
       <c r="C47" s="67" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D47" s="67" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="E47" s="68">
         <v>1</v>
       </c>
       <c r="F47" s="68" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G47" s="69" t="s">
-        <v>88</v>
-      </c>
-      <c r="H47" s="124" t="s">
-        <v>94</v>
-      </c>
-      <c r="I47" s="124"/>
+        <v>87</v>
+      </c>
+      <c r="H47" s="134" t="s">
+        <v>93</v>
+      </c>
+      <c r="I47" s="134"/>
       <c r="J47" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="K47" s="1" t="s">
-        <v>136</v>
+        <v>147</v>
+      </c>
+      <c r="K47" s="1">
+        <v>64000000</v>
       </c>
     </row>
     <row r="48" spans="1:11" ht="22.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A48" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B48" s="17" t="s">
         <v>2</v>
       </c>
       <c r="C48" s="67" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D48" s="67" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="E48" s="68">
         <v>1</v>
       </c>
       <c r="F48" s="68" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G48" s="69" t="s">
-        <v>88</v>
-      </c>
-      <c r="H48" s="124" t="s">
-        <v>94</v>
-      </c>
-      <c r="I48" s="124"/>
+        <v>87</v>
+      </c>
+      <c r="H48" s="134" t="s">
+        <v>93</v>
+      </c>
+      <c r="I48" s="134"/>
       <c r="J48" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="K48" s="1" t="s">
-        <v>136</v>
+        <v>147</v>
+      </c>
+      <c r="K48" s="1">
+        <v>64000000</v>
       </c>
     </row>
     <row r="49" spans="1:11" ht="22.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A49" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B49" s="17" t="s">
         <v>2</v>
       </c>
       <c r="C49" s="67" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D49" s="67" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="E49" s="68">
         <v>1</v>
       </c>
       <c r="F49" s="68" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G49" s="69" t="s">
-        <v>88</v>
-      </c>
-      <c r="H49" s="124" t="s">
-        <v>94</v>
-      </c>
-      <c r="I49" s="124"/>
+        <v>87</v>
+      </c>
+      <c r="H49" s="134" t="s">
+        <v>93</v>
+      </c>
+      <c r="I49" s="134"/>
       <c r="J49" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="K49" s="1" t="s">
-        <v>136</v>
+        <v>147</v>
+      </c>
+      <c r="K49" s="1">
+        <v>64000000</v>
       </c>
     </row>
     <row r="50" spans="1:11" ht="22.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A50" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B50" s="17" t="s">
         <v>2</v>
       </c>
       <c r="C50" s="67" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D50" s="67" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="E50" s="68">
         <v>1</v>
       </c>
       <c r="F50" s="68" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G50" s="69" t="s">
-        <v>88</v>
-      </c>
-      <c r="H50" s="124" t="s">
-        <v>94</v>
-      </c>
-      <c r="I50" s="124"/>
+        <v>87</v>
+      </c>
+      <c r="H50" s="134" t="s">
+        <v>93</v>
+      </c>
+      <c r="I50" s="134"/>
       <c r="J50" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="K50" s="1" t="s">
-        <v>136</v>
+        <v>147</v>
+      </c>
+      <c r="K50" s="1">
+        <v>64000000</v>
       </c>
     </row>
     <row r="51" spans="1:11" ht="22.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A51" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B51" s="17" t="s">
         <v>2</v>
       </c>
       <c r="C51" s="67" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D51" s="67" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="E51" s="68">
         <v>1</v>
       </c>
       <c r="F51" s="68" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G51" s="69" t="s">
-        <v>88</v>
-      </c>
-      <c r="H51" s="124" t="s">
-        <v>94</v>
-      </c>
-      <c r="I51" s="124"/>
+        <v>87</v>
+      </c>
+      <c r="H51" s="134" t="s">
+        <v>93</v>
+      </c>
+      <c r="I51" s="134"/>
       <c r="J51" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="K51" s="1" t="s">
-        <v>136</v>
+        <v>147</v>
+      </c>
+      <c r="K51" s="1">
+        <v>64000000</v>
       </c>
     </row>
     <row r="52" spans="1:11" ht="22.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -6889,27 +6883,27 @@
         <v>20</v>
       </c>
       <c r="C52" s="76" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D52" s="76" t="s">
+        <v>89</v>
+      </c>
+      <c r="E52" s="78" t="s">
+        <v>89</v>
+      </c>
+      <c r="F52" s="138" t="s">
         <v>90</v>
       </c>
-      <c r="E52" s="78" t="s">
-        <v>90</v>
-      </c>
-      <c r="F52" s="125" t="s">
-        <v>91</v>
-      </c>
-      <c r="G52" s="125"/>
-      <c r="H52" s="126" t="s">
-        <v>108</v>
-      </c>
-      <c r="I52" s="126"/>
+      <c r="G52" s="138"/>
+      <c r="H52" s="139" t="s">
+        <v>107</v>
+      </c>
+      <c r="I52" s="139"/>
       <c r="J52" s="17" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="53" spans="1:11" ht="22.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -6920,72 +6914,34 @@
         <v>16</v>
       </c>
       <c r="C53" s="64" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D53" s="65" t="s">
+        <v>139</v>
+      </c>
+      <c r="E53" s="65">
+        <v>1</v>
+      </c>
+      <c r="F53" s="66" t="s">
+        <v>87</v>
+      </c>
+      <c r="G53" s="65" t="s">
+        <v>91</v>
+      </c>
+      <c r="H53" s="133" t="s">
+        <v>95</v>
+      </c>
+      <c r="I53" s="133"/>
+      <c r="J53" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="K53" s="1" t="s">
         <v>142</v>
-      </c>
-      <c r="E53" s="65">
-        <v>1</v>
-      </c>
-      <c r="F53" s="66" t="s">
-        <v>88</v>
-      </c>
-      <c r="G53" s="65" t="s">
-        <v>92</v>
-      </c>
-      <c r="H53" s="127" t="s">
-        <v>96</v>
-      </c>
-      <c r="I53" s="127"/>
-      <c r="J53" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="K53" s="1" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="54" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="C1:K1"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="H38:I38"/>
     <mergeCell ref="H51:I51"/>
     <mergeCell ref="F52:G52"/>
     <mergeCell ref="H52:I52"/>
@@ -7002,6 +6958,44 @@
     <mergeCell ref="H41:I41"/>
     <mergeCell ref="H42:I42"/>
     <mergeCell ref="H43:I43"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="C1:K1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
